--- a/biology/Biochimie/Digesteur_mésophile/Digesteur_mésophile.xlsx
+++ b/biology/Biochimie/Digesteur_mésophile/Digesteur_mésophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Digesteur_m%C3%A9sophile</t>
+          <t>Digesteur_mésophile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un digesteur mésophile ou biodigesteur mésophile est une sorte de digesteur ou biodigesteur qui fonctionne à des températures comprises entre 20°C et environ 40°C, typiquement 37°C. C'est le type de biodigesteur le plus utilisé au monde et plus de 90% des biodigesteurs mondiaux sont de ce type. Les digesteurs thermophiles d'autre-part représentent moins de 10% des digesteurs dans le monde. Les digesteurs mésophiles sont utilisés pour produire du biogaz, des biofertilisants et pour l'assainissement, principalement dans les pays tropicaux comme l'Inde et le Brésil.
-La digestion mésophile permet de stimuler la croissance de micro-organismes se multipliant de façon optimale à ces niveaux de température, des  micro-organismes mésophiles notamment[1].
+La digestion mésophile permet de stimuler la croissance de micro-organismes se multipliant de façon optimale à ces niveaux de température, des  micro-organismes mésophiles notamment.
 </t>
         </is>
       </c>
